--- a/TFG_Results/Autoformer_results/output.xlsx
+++ b/TFG_Results/Autoformer_results/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
@@ -853,505 +853,673 @@
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>A13_extra</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-21.540427</v>
+        <v>-25.206965</v>
       </c>
       <c r="C15" t="n">
-        <v>-35.324022</v>
+        <v>-37.910107</v>
       </c>
       <c r="D15" t="n">
-        <v>-11.545478</v>
+        <v>-11.466701</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.88215</v>
+        <v>-23.755379</v>
       </c>
       <c r="F15" t="n">
-        <v>-20.823962</v>
+        <v>-20.625593</v>
       </c>
       <c r="G15" t="n">
-        <v>-22.62939</v>
+        <v>-18.921823</v>
       </c>
       <c r="H15" t="n">
-        <v>-26.003685</v>
+        <v>-23.661854</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.206965</v>
+        <v>-20.456656</v>
       </c>
       <c r="C16" t="n">
-        <v>-37.910107</v>
+        <v>-38.948327</v>
       </c>
       <c r="D16" t="n">
-        <v>-11.466701</v>
+        <v>-11.669924</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.755379</v>
+        <v>-24.513622</v>
       </c>
       <c r="F16" t="n">
-        <v>-20.625593</v>
+        <v>-15.35893</v>
       </c>
       <c r="G16" t="n">
-        <v>-18.921823</v>
+        <v>-16.748824</v>
       </c>
       <c r="H16" t="n">
-        <v>-23.661854</v>
+        <v>-20.502737</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.456656</v>
+        <v>-18.638955</v>
       </c>
       <c r="C17" t="n">
-        <v>-38.948327</v>
+        <v>-39.427174</v>
       </c>
       <c r="D17" t="n">
-        <v>-11.669924</v>
+        <v>-11.176118</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.513622</v>
+        <v>-27.389314</v>
       </c>
       <c r="F17" t="n">
-        <v>-15.35893</v>
+        <v>-14.124407</v>
       </c>
       <c r="G17" t="n">
-        <v>-16.748824</v>
+        <v>-18.223862</v>
       </c>
       <c r="H17" t="n">
-        <v>-20.502737</v>
+        <v>-16.847203</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-18.638955</v>
+        <v>-24.165095</v>
       </c>
       <c r="C18" t="n">
-        <v>-39.427174</v>
+        <v>-35.472344</v>
       </c>
       <c r="D18" t="n">
-        <v>-11.176118</v>
+        <v>-11.035891</v>
       </c>
       <c r="E18" t="n">
-        <v>-27.389314</v>
+        <v>-24.023918</v>
       </c>
       <c r="F18" t="n">
-        <v>-14.124407</v>
+        <v>-16.679922</v>
       </c>
       <c r="G18" t="n">
-        <v>-18.223862</v>
+        <v>-21.837786</v>
       </c>
       <c r="H18" t="n">
-        <v>-16.847203</v>
+        <v>-20.622145</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-24.165095</v>
+        <v>-15.942448</v>
       </c>
       <c r="C19" t="n">
-        <v>-35.472344</v>
+        <v>-37.943257</v>
       </c>
       <c r="D19" t="n">
-        <v>-11.035891</v>
+        <v>-11.333771</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.023918</v>
+        <v>-23.714948</v>
       </c>
       <c r="F19" t="n">
-        <v>-16.679922</v>
+        <v>-12.718013</v>
       </c>
       <c r="G19" t="n">
-        <v>-21.837786</v>
+        <v>-24.179039</v>
       </c>
       <c r="H19" t="n">
-        <v>-20.622145</v>
+        <v>-14.953411</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-15.942448</v>
+        <v>-19.123029</v>
       </c>
       <c r="C20" t="n">
-        <v>-37.943257</v>
+        <v>-38.86046</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.333771</v>
+        <v>-11.286634</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.714948</v>
+        <v>-22.10841</v>
       </c>
       <c r="F20" t="n">
-        <v>-12.718013</v>
+        <v>-14.505441</v>
       </c>
       <c r="G20" t="n">
-        <v>-24.179039</v>
+        <v>-23.532979</v>
       </c>
       <c r="H20" t="n">
-        <v>-14.953411</v>
+        <v>-17.514256</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-19.123029</v>
+        <v>-17.173519</v>
       </c>
       <c r="C21" t="n">
-        <v>-38.86046</v>
+        <v>-37.792659</v>
       </c>
       <c r="D21" t="n">
-        <v>-11.286634</v>
+        <v>-11.385475</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.10841</v>
+        <v>-20.67318</v>
       </c>
       <c r="F21" t="n">
-        <v>-14.505441</v>
+        <v>-19.185306</v>
       </c>
       <c r="G21" t="n">
-        <v>-23.532979</v>
+        <v>-20.199449</v>
       </c>
       <c r="H21" t="n">
-        <v>-17.514256</v>
+        <v>-18.419936</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-17.173519</v>
+        <v>-25.763845</v>
       </c>
       <c r="C22" t="n">
-        <v>-37.792659</v>
+        <v>-36.937957</v>
       </c>
       <c r="D22" t="n">
-        <v>-11.385475</v>
+        <v>-11.188488</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.67318</v>
+        <v>-24.585033</v>
       </c>
       <c r="F22" t="n">
-        <v>-19.185306</v>
+        <v>-15.542229</v>
       </c>
       <c r="G22" t="n">
-        <v>-20.199449</v>
+        <v>-20.603089</v>
       </c>
       <c r="H22" t="n">
-        <v>-18.419936</v>
+        <v>-19.80346</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-25.763845</v>
+        <v>-19.676549</v>
       </c>
       <c r="C23" t="n">
-        <v>-36.937957</v>
+        <v>-39.465728</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.188488</v>
+        <v>-11.101658</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.585033</v>
+        <v>-24.557218</v>
       </c>
       <c r="F23" t="n">
-        <v>-15.542229</v>
+        <v>-18.337646</v>
       </c>
       <c r="G23" t="n">
-        <v>-20.603089</v>
+        <v>-20.506351</v>
       </c>
       <c r="H23" t="n">
-        <v>-19.80346</v>
+        <v>-19.769536</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-19.676549</v>
+        <v>-18.990129</v>
       </c>
       <c r="C24" t="n">
-        <v>-39.465728</v>
+        <v>-37.04406</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.101658</v>
+        <v>-10.49992</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.557218</v>
+        <v>-22.22021</v>
       </c>
       <c r="F24" t="n">
-        <v>-18.337646</v>
+        <v>-20.630036</v>
       </c>
       <c r="G24" t="n">
-        <v>-20.506351</v>
+        <v>-21.372223</v>
       </c>
       <c r="H24" t="n">
-        <v>-19.769536</v>
+        <v>-24.60819</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-18.990129</v>
+        <v>-23.453703</v>
       </c>
       <c r="C25" t="n">
-        <v>-37.04406</v>
+        <v>-39.804216</v>
       </c>
       <c r="D25" t="n">
-        <v>-10.49992</v>
+        <v>-11.165743</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.22021</v>
+        <v>-26.22157</v>
       </c>
       <c r="F25" t="n">
-        <v>-20.630036</v>
+        <v>-19.413251</v>
       </c>
       <c r="G25" t="n">
-        <v>-21.372223</v>
+        <v>-15.080489</v>
       </c>
       <c r="H25" t="n">
-        <v>-24.60819</v>
+        <v>-23.902177</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>A25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-23.453703</v>
+        <v>-19.10153</v>
       </c>
       <c r="C26" t="n">
-        <v>-39.804216</v>
+        <v>-39.735875</v>
       </c>
       <c r="D26" t="n">
-        <v>-11.165743</v>
+        <v>-11.066752</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.22157</v>
+        <v>-20.414353</v>
       </c>
       <c r="F26" t="n">
-        <v>-19.413251</v>
+        <v>-16.460452</v>
       </c>
       <c r="G26" t="n">
-        <v>-15.080489</v>
+        <v>-16.733881</v>
       </c>
       <c r="H26" t="n">
-        <v>-23.902177</v>
+        <v>-17.691263</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>A26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-19.10153</v>
+        <v>-21.545885</v>
       </c>
       <c r="C27" t="n">
-        <v>-39.735875</v>
+        <v>-38.409893</v>
       </c>
       <c r="D27" t="n">
-        <v>-11.066752</v>
+        <v>-11.159232</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.414353</v>
+        <v>-21.469325</v>
       </c>
       <c r="F27" t="n">
-        <v>-16.460452</v>
+        <v>-17.057535</v>
       </c>
       <c r="G27" t="n">
-        <v>-16.733881</v>
+        <v>-21.723712</v>
       </c>
       <c r="H27" t="n">
-        <v>-17.691263</v>
+        <v>-23.026742</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-21.545885</v>
+        <v>-21.385106</v>
       </c>
       <c r="C28" t="n">
-        <v>-38.409893</v>
+        <v>-36.981748</v>
       </c>
       <c r="D28" t="n">
-        <v>-11.159232</v>
+        <v>-11.33923</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.469325</v>
+        <v>-28.37351</v>
       </c>
       <c r="F28" t="n">
-        <v>-17.057535</v>
+        <v>-15.398792</v>
       </c>
       <c r="G28" t="n">
-        <v>-21.723712</v>
+        <v>-15.045566</v>
       </c>
       <c r="H28" t="n">
-        <v>-23.026742</v>
+        <v>-22.382726</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-21.385106</v>
+        <v>-18.118553</v>
       </c>
       <c r="C29" t="n">
-        <v>-36.981748</v>
+        <v>-35.598968</v>
       </c>
       <c r="D29" t="n">
-        <v>-11.33923</v>
+        <v>-11.181393</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.37351</v>
+        <v>-19.473176</v>
       </c>
       <c r="F29" t="n">
-        <v>-15.398792</v>
+        <v>-9.979419999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>-15.045566</v>
+        <v>-20.895308</v>
       </c>
       <c r="H29" t="n">
-        <v>-22.382726</v>
+        <v>-13.497533</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-18.118553</v>
+        <v>-23.095559</v>
       </c>
       <c r="C30" t="n">
-        <v>-35.598968</v>
+        <v>-39.348982</v>
       </c>
       <c r="D30" t="n">
-        <v>-11.181393</v>
+        <v>-11.227052</v>
       </c>
       <c r="E30" t="n">
-        <v>-19.473176</v>
+        <v>-26.123005</v>
       </c>
       <c r="F30" t="n">
-        <v>-9.979419999999999</v>
+        <v>-17.174613</v>
       </c>
       <c r="G30" t="n">
-        <v>-20.895308</v>
+        <v>-17.334098</v>
       </c>
       <c r="H30" t="n">
-        <v>-13.497533</v>
+        <v>-22.278846</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>A30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-23.095559</v>
+        <v>-22.073279</v>
       </c>
       <c r="C31" t="n">
-        <v>-39.348982</v>
+        <v>-38.341202</v>
       </c>
       <c r="D31" t="n">
-        <v>-11.227052</v>
+        <v>-11.213291</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.123005</v>
+        <v>-21.386002</v>
       </c>
       <c r="F31" t="n">
-        <v>-17.174613</v>
+        <v>-18.352309</v>
       </c>
       <c r="G31" t="n">
-        <v>-17.334098</v>
+        <v>-20.595509</v>
       </c>
       <c r="H31" t="n">
-        <v>-22.278846</v>
+        <v>-19.498771</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-22.073279</v>
+        <v>-23.963507</v>
       </c>
       <c r="C32" t="n">
-        <v>-38.341202</v>
+        <v>-31.991663</v>
       </c>
       <c r="D32" t="n">
-        <v>-11.213291</v>
+        <v>-11.371416</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.386002</v>
+        <v>-20.294384</v>
       </c>
       <c r="F32" t="n">
-        <v>-18.352309</v>
+        <v>-17.787536</v>
       </c>
       <c r="G32" t="n">
-        <v>-20.595509</v>
+        <v>-20.743974</v>
       </c>
       <c r="H32" t="n">
-        <v>-19.498771</v>
+        <v>-23.200729</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>A32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-21.041091</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-32.692718</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-11.380214</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-20.434507</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-14.175468</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-22.722966</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-17.831935</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>A33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-23.607695</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-33.483727</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-11.211915</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-23.530091</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-17.03882</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-20.44709</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-23.959906</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>A34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-18.175347</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-29.268681</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-11.25685</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-17.382874</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-14.986296</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-20.518814</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-18.017784</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>A35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-20.116259</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-35.716967</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-11.452413</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-20.701175</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-16.264816</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-14.987154</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-16.980119</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>A36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-18.74312</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-27.250373</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-11.186823</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-18.202818</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-16.313084</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-21.724971</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-17.637888</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>A37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-19.986791</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-31.465399</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-11.968449</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-20.442302</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-20.333181</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-20.557954</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-23.342056</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,7 +1541,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
@@ -1792,505 +1960,673 @@
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>A13_extra</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.617</v>
+        <v>-0.994</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.224</v>
+        <v>-0.247</v>
       </c>
       <c r="E15" t="n">
-        <v>-13.158</v>
+        <v>-8.196999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.836</v>
+        <v>0.829</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.451</v>
+        <v>-2.408</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.864</v>
+        <v>0.594</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.994</v>
+        <v>-0.57</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.247</v>
+        <v>-0.19</v>
       </c>
       <c r="E16" t="n">
-        <v>-8.196999999999999</v>
+        <v>-6.724</v>
       </c>
       <c r="F16" t="n">
-        <v>0.829</v>
+        <v>0.424</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.408</v>
+        <v>-4.62</v>
       </c>
       <c r="H16" t="n">
-        <v>0.89</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.594</v>
+        <v>0.383</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.57</v>
+        <v>-0.406</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.19</v>
+        <v>-0.333</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.724</v>
+        <v>-2.984</v>
       </c>
       <c r="F17" t="n">
-        <v>0.424</v>
+        <v>0.235</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.62</v>
+        <v>-3.002</v>
       </c>
       <c r="H17" t="n">
-        <v>0.773</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.383</v>
+        <v>0.827</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.406</v>
+        <v>-2.496</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.333</v>
+        <v>-0.377</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.984</v>
+        <v>-7.646</v>
       </c>
       <c r="F18" t="n">
-        <v>0.235</v>
+        <v>0.575</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.002</v>
+        <v>-0.741</v>
       </c>
       <c r="H18" t="n">
-        <v>0.473</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.827</v>
+        <v>-0.148</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.496</v>
+        <v>-0.979</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.377</v>
+        <v>-0.285</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.646</v>
+        <v>-8.282999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.575</v>
+        <v>-0.058</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.741</v>
+        <v>-0.016</v>
       </c>
       <c r="H19" t="n">
-        <v>0.779</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.148</v>
+        <v>0.448</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.979</v>
+        <v>-0.602</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.285</v>
+        <v>-0.299</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.282999999999999</v>
+        <v>-12.439</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.058</v>
+        <v>0.299</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.016</v>
+        <v>-0.179</v>
       </c>
       <c r="H20" t="n">
-        <v>0.184</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.448</v>
+        <v>0.135</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.602</v>
+        <v>-1.049</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.299</v>
+        <v>-0.27</v>
       </c>
       <c r="E21" t="n">
-        <v>-12.439</v>
+        <v>-17.702</v>
       </c>
       <c r="F21" t="n">
-        <v>0.299</v>
+        <v>0.761</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.179</v>
+        <v>-1.539</v>
       </c>
       <c r="H21" t="n">
-        <v>0.548</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.135</v>
+        <v>0.88</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.049</v>
+        <v>-1.494</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.27</v>
+        <v>-0.329</v>
       </c>
       <c r="E22" t="n">
-        <v>-17.702</v>
+        <v>-6.598</v>
       </c>
       <c r="F22" t="n">
-        <v>0.761</v>
+        <v>0.448</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.539</v>
+        <v>-1.314</v>
       </c>
       <c r="H22" t="n">
-        <v>0.633</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.88</v>
+        <v>0.514</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.494</v>
+        <v>-0.394</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.329</v>
+        <v>-0.356</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.598</v>
+        <v>-6.647</v>
       </c>
       <c r="F23" t="n">
-        <v>0.448</v>
+        <v>0.71</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.314</v>
+        <v>-1.366</v>
       </c>
       <c r="H23" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.514</v>
+        <v>0.431</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.394</v>
+        <v>-1.434</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.356</v>
+        <v>-0.5570000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.647</v>
+        <v>-12.097</v>
       </c>
       <c r="F24" t="n">
-        <v>0.71</v>
+        <v>0.829</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.366</v>
+        <v>-0.9379999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.731</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.431</v>
+        <v>0.796</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.434</v>
+        <v>-0.289</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.5570000000000001</v>
+        <v>-0.336</v>
       </c>
       <c r="E25" t="n">
-        <v>-12.097</v>
+        <v>-4.212</v>
       </c>
       <c r="F25" t="n">
-        <v>0.829</v>
+        <v>0.774</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.9379999999999999</v>
+        <v>-7.253</v>
       </c>
       <c r="H25" t="n">
-        <v>0.912</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>A25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.796</v>
+        <v>0.445</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.289</v>
+        <v>-0.31</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.336</v>
+        <v>-0.367</v>
       </c>
       <c r="E26" t="n">
-        <v>-4.212</v>
+        <v>-18.85</v>
       </c>
       <c r="F26" t="n">
-        <v>0.774</v>
+        <v>0.553</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.253</v>
+        <v>-4.64</v>
       </c>
       <c r="H26" t="n">
-        <v>0.896</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>A26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.445</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.31</v>
+        <v>-0.777</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.367</v>
+        <v>-0.338</v>
       </c>
       <c r="E27" t="n">
-        <v>-18.85</v>
+        <v>-14.569</v>
       </c>
       <c r="F27" t="n">
-        <v>0.553</v>
+        <v>0.611</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.64</v>
+        <v>-0.788</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.672</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.777</v>
+        <v>-1.469</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.338</v>
+        <v>-0.284</v>
       </c>
       <c r="E28" t="n">
-        <v>-14.569</v>
+        <v>-2.176</v>
       </c>
       <c r="F28" t="n">
-        <v>0.611</v>
+        <v>0.43</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.788</v>
+        <v>-7.319</v>
       </c>
       <c r="H28" t="n">
-        <v>0.873</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.672</v>
+        <v>0.304</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.469</v>
+        <v>-2.395</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.284</v>
+        <v>-0.331</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.176</v>
+        <v>-23.654</v>
       </c>
       <c r="F29" t="n">
-        <v>0.43</v>
+        <v>-0.987</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.319</v>
+        <v>-1.163</v>
       </c>
       <c r="H29" t="n">
-        <v>0.853</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.304</v>
+        <v>0.779</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.395</v>
+        <v>-0.432</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.331</v>
+        <v>-0.317</v>
       </c>
       <c r="E30" t="n">
-        <v>-23.654</v>
+        <v>-4.332</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.987</v>
+        <v>0.621</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.163</v>
+        <v>-3.912</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.14</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>A30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.779</v>
+        <v>0.72</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.432</v>
+        <v>-0.806</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.317</v>
+        <v>-0.321</v>
       </c>
       <c r="E31" t="n">
-        <v>-4.332</v>
+        <v>-14.871</v>
       </c>
       <c r="F31" t="n">
-        <v>0.621</v>
+        <v>0.711</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.912</v>
+        <v>-1.318</v>
       </c>
       <c r="H31" t="n">
-        <v>0.849</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.72</v>
+        <v>0.819</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.806</v>
+        <v>-6.791</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.321</v>
+        <v>-0.274</v>
       </c>
       <c r="E32" t="n">
-        <v>-14.871</v>
+        <v>-19.406</v>
       </c>
       <c r="F32" t="n">
-        <v>0.711</v>
+        <v>0.671</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.318</v>
+        <v>-1.24</v>
       </c>
       <c r="H32" t="n">
-        <v>0.714</v>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>A32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.629</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.272</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-18.758</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>A33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-4.526</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.322</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-8.686999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1.399</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.897</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>A34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-13.584</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-38.895</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1.359</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.597</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>A35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.304</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.251</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-17.582</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-7.432</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.489</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>A36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-22.212</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-32.031</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.787</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>A37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-7.795</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.111</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-18.723</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1.338</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.882</v>
       </c>
     </row>
   </sheetData>
